--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
